--- a/_RFR/RFR Succession Transitions.xlsx
+++ b/_RFR/RFR Succession Transitions.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="19300" windowHeight="23560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="18980" windowHeight="19360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Mesic" sheetId="4" r:id="rId1"/>
-    <sheet name="Xeric" sheetId="1" r:id="rId2"/>
-    <sheet name="Wies" sheetId="2" r:id="rId3"/>
-    <sheet name="PNV" sheetId="3" r:id="rId4"/>
-    <sheet name="Ultramafic" sheetId="5" r:id="rId5"/>
+    <sheet name="Xeric 321 (RFWFJP)" sheetId="4" r:id="rId1"/>
+    <sheet name="Mesic 322 (RFWWLP)" sheetId="1" r:id="rId2"/>
+    <sheet name="ASP 4" sheetId="8" r:id="rId3"/>
+    <sheet name="ASP" sheetId="6" r:id="rId4"/>
+    <sheet name="UM 2" sheetId="7" r:id="rId5"/>
+    <sheet name="Wies" sheetId="2" r:id="rId6"/>
+    <sheet name="PNV" sheetId="3" r:id="rId7"/>
+    <sheet name="Ultramafic" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="216">
   <si>
     <t>Succession Type</t>
   </si>
@@ -653,6 +656,24 @@
   </si>
   <si>
     <t>Proportion of LS that transitions to:</t>
+  </si>
+  <si>
+    <t>Mid Aspen</t>
+  </si>
+  <si>
+    <t>Mid Aspen Conifer</t>
+  </si>
+  <si>
+    <t>Late Conifer Aspen</t>
+  </si>
+  <si>
+    <t>100% ED</t>
+  </si>
+  <si>
+    <t>100% to ED</t>
+  </si>
+  <si>
+    <t>100% stay LC2</t>
   </si>
 </sst>
 </file>
@@ -663,7 +684,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -691,6 +712,21 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -791,7 +827,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -807,6 +843,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1167,7 +1211,10 @@
   <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2281,19 +2328,19 @@
         <v>31</v>
       </c>
       <c r="C42">
+        <v>0.2</v>
+      </c>
+      <c r="D42">
+        <v>0.2</v>
+      </c>
+      <c r="E42">
         <v>0.15</v>
       </c>
-      <c r="D42">
-        <v>0.3</v>
-      </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.25</v>
       </c>
-      <c r="F42">
-        <v>0.15</v>
-      </c>
       <c r="G42">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H42">
         <f>SUM(C42:G42)</f>
@@ -2306,27 +2353,27 @@
       </c>
       <c r="C44">
         <f>C17*C42</f>
-        <v>1.764705882352941E-3</v>
+        <v>2.3529411764705885E-3</v>
       </c>
       <c r="D44">
         <f>D17*D42</f>
-        <v>1.3250000000000001E-2</v>
+        <v>8.8333333333333354E-3</v>
       </c>
       <c r="E44">
         <f>E17*E42</f>
-        <v>1.4166666666666668E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="F44">
         <f>F17*F42</f>
-        <v>5.7500000000000008E-3</v>
+        <v>9.5833333333333343E-3</v>
       </c>
       <c r="G44">
         <f>G17*G42</f>
-        <v>4.1294117647058823E-3</v>
+        <v>5.5058823529411764E-3</v>
       </c>
       <c r="H44">
         <f>SUM(C44:G44)</f>
-        <v>3.9060784313725491E-2</v>
+        <v>3.4775490196078437E-2</v>
       </c>
       <c r="Q44" s="6"/>
     </row>
@@ -2336,27 +2383,27 @@
       </c>
       <c r="C45">
         <f>C14*C42</f>
-        <v>1.764705882352941E-3</v>
+        <v>2.3529411764705885E-3</v>
       </c>
       <c r="D45">
         <f>D14*D42</f>
-        <v>2E-3</v>
+        <v>1.3333333333333335E-3</v>
       </c>
       <c r="E45">
         <f>E14*E42</f>
-        <v>1.6666666666666668E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F45">
         <f>F14*F42</f>
-        <v>1E-3</v>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="G45">
         <f>G14*G42</f>
-        <v>5.9999999999999995E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="H45">
         <f>SUM(C45:G45)</f>
-        <v>7.0313725490196077E-3</v>
+        <v>7.1529411764705893E-3</v>
       </c>
       <c r="Q45" s="6"/>
     </row>
@@ -2370,23 +2417,23 @@
       </c>
       <c r="D46">
         <f>D15*D42</f>
-        <v>1.1250000000000001E-2</v>
+        <v>7.5000000000000015E-3</v>
       </c>
       <c r="E46">
         <f>E15*E42</f>
-        <v>1.2500000000000001E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F46">
         <f>F15*F42</f>
-        <v>4.7499999999999999E-3</v>
+        <v>7.9166666666666673E-3</v>
       </c>
       <c r="G46">
         <f>G15*G42</f>
-        <v>3.529411764705882E-3</v>
+        <v>4.7058823529411769E-3</v>
       </c>
       <c r="H46">
         <f>SUM(C46:G46)</f>
-        <v>3.2029411764705883E-2</v>
+        <v>2.7622549019607846E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2432,19 +2479,19 @@
       </c>
       <c r="F50">
         <f>F55*D50</f>
-        <v>8.8499624606280846E-4</v>
+        <v>7.8790476994362445E-4</v>
       </c>
       <c r="H50">
         <f>H45</f>
-        <v>7.0313725490196077E-3</v>
+        <v>7.1529411764705893E-3</v>
       </c>
       <c r="I50">
         <f>1/H50</f>
-        <v>142.21974344673731</v>
+        <v>139.80263157894734</v>
       </c>
       <c r="J50">
         <f>H50/H55*100</f>
-        <v>18.001104362230809</v>
+        <v>20.568915452059429</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2464,7 +2511,7 @@
       </c>
       <c r="F51">
         <f>F55*D51</f>
-        <v>8.6759131989023984E-3</v>
+        <v>7.7240930946806648E-3</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2496,19 +2543,19 @@
       </c>
       <c r="F54">
         <f>F55*D54</f>
-        <v>2.9499874868760285E-2</v>
+        <v>2.6263492331454148E-2</v>
       </c>
       <c r="H54">
         <f>H46</f>
-        <v>3.2029411764705883E-2</v>
+        <v>2.7622549019607846E-2</v>
       </c>
       <c r="I54">
         <f>1/H54</f>
-        <v>31.221303948576676</v>
+        <v>36.202307009760425</v>
       </c>
       <c r="J54">
         <f>H54/H55*100</f>
-        <v>81.998895637769181</v>
+        <v>79.431084547940571</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2528,15 +2575,15 @@
       </c>
       <c r="F55">
         <f>H44</f>
-        <v>3.9060784313725491E-2</v>
+        <v>3.4775490196078437E-2</v>
       </c>
       <c r="H55">
         <f>H50+H54</f>
-        <v>3.9060784313725491E-2</v>
+        <v>3.4775490196078437E-2</v>
       </c>
       <c r="I55">
         <f>1/H55</f>
-        <v>25.601124441544098</v>
+        <v>28.755885089227814</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2645,10 +2692,10 @@
   <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3758,16 +3805,16 @@
         <v>31</v>
       </c>
       <c r="C42">
+        <v>0.1</v>
+      </c>
+      <c r="D42">
+        <v>0.1</v>
+      </c>
+      <c r="E42">
         <v>0.2</v>
       </c>
-      <c r="D42">
-        <v>0.2</v>
-      </c>
-      <c r="E42">
-        <v>0.15</v>
-      </c>
       <c r="F42">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G42">
         <v>0.2</v>
@@ -3783,19 +3830,19 @@
       </c>
       <c r="C44">
         <f>C17*C42</f>
-        <v>2.3529411764705885E-3</v>
+        <v>1.1764705882352942E-3</v>
       </c>
       <c r="D44">
         <f>D17*D42</f>
-        <v>8.8333333333333354E-3</v>
+        <v>4.4166666666666677E-3</v>
       </c>
       <c r="E44">
         <f>E17*E42</f>
-        <v>8.5000000000000006E-3</v>
+        <v>1.1333333333333334E-2</v>
       </c>
       <c r="F44">
         <f>F17*F42</f>
-        <v>9.5833333333333343E-3</v>
+        <v>1.5333333333333336E-2</v>
       </c>
       <c r="G44">
         <f>G17*G42</f>
@@ -3803,7 +3850,7 @@
       </c>
       <c r="H44">
         <f>SUM(C44:G44)</f>
-        <v>3.4775490196078437E-2</v>
+        <v>3.776568627450981E-2</v>
       </c>
       <c r="Q44" s="6"/>
     </row>
@@ -3813,19 +3860,19 @@
       </c>
       <c r="C45">
         <f>C14*C42</f>
-        <v>2.3529411764705885E-3</v>
+        <v>1.1764705882352942E-3</v>
       </c>
       <c r="D45">
         <f>D14*D42</f>
-        <v>1.3333333333333335E-3</v>
+        <v>6.6666666666666675E-4</v>
       </c>
       <c r="E45">
         <f>E14*E42</f>
-        <v>1E-3</v>
+        <v>1.3333333333333335E-3</v>
       </c>
       <c r="F45">
         <f>F14*F42</f>
-        <v>1.6666666666666668E-3</v>
+        <v>2.666666666666667E-3</v>
       </c>
       <c r="G45">
         <f>G14*G42</f>
@@ -3833,7 +3880,7 @@
       </c>
       <c r="H45">
         <f>SUM(C45:G45)</f>
-        <v>7.1529411764705893E-3</v>
+        <v>6.6431372549019619E-3</v>
       </c>
       <c r="Q45" s="6"/>
     </row>
@@ -3847,15 +3894,15 @@
       </c>
       <c r="D46">
         <f>D15*D42</f>
-        <v>7.5000000000000015E-3</v>
+        <v>3.7500000000000007E-3</v>
       </c>
       <c r="E46">
         <f>E15*E42</f>
-        <v>7.4999999999999997E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="F46">
         <f>F15*F42</f>
-        <v>7.9166666666666673E-3</v>
+        <v>1.2666666666666668E-2</v>
       </c>
       <c r="G46">
         <f>G15*G42</f>
@@ -3863,7 +3910,7 @@
       </c>
       <c r="H46">
         <f>SUM(C46:G46)</f>
-        <v>2.7622549019607846E-2</v>
+        <v>3.1122549019607849E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3909,19 +3956,19 @@
       </c>
       <c r="F50">
         <f>F55*D50</f>
-        <v>7.8790476994362445E-4</v>
+        <v>8.5565334055984763E-4</v>
       </c>
       <c r="H50">
         <f>H45</f>
-        <v>7.1529411764705893E-3</v>
+        <v>6.6431372549019619E-3</v>
       </c>
       <c r="I50">
         <f>1/H50</f>
-        <v>139.80263157894734</v>
+        <v>150.53128689492323</v>
       </c>
       <c r="J50">
         <f>H50/H55*100</f>
-        <v>20.568915452059429</v>
+        <v>17.590405233508996</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3941,7 +3988,7 @@
       </c>
       <c r="F51">
         <f>F55*D51</f>
-        <v>7.7240930946806648E-3</v>
+        <v>8.3882549152883724E-3</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3973,19 +4020,19 @@
       </c>
       <c r="F54">
         <f>F55*D54</f>
-        <v>2.6263492331454148E-2</v>
+        <v>2.8521778018661591E-2</v>
       </c>
       <c r="H54">
         <f>H46</f>
-        <v>2.7622549019607846E-2</v>
+        <v>3.1122549019607849E-2</v>
       </c>
       <c r="I54">
         <f>1/H54</f>
-        <v>36.202307009760425</v>
+        <v>32.13104425893841</v>
       </c>
       <c r="J54">
         <f>H54/H55*100</f>
-        <v>79.431084547940571</v>
+        <v>82.409594766491011</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4005,15 +4052,15 @@
       </c>
       <c r="F55">
         <f>H44</f>
-        <v>3.4775490196078437E-2</v>
+        <v>3.776568627450981E-2</v>
       </c>
       <c r="H55">
         <f>H50+H54</f>
-        <v>3.4775490196078437E-2</v>
+        <v>3.776568627450981E-2</v>
       </c>
       <c r="I55">
         <f>1/H55</f>
-        <v>28.755885089227814</v>
+        <v>26.479063368033017</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4119,6 +4166,6341 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="17"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20">
+        <v>200</v>
+      </c>
+      <c r="D2" s="20">
+        <v>150</v>
+      </c>
+      <c r="E2" s="20">
+        <v>120</v>
+      </c>
+      <c r="F2" s="20">
+        <v>200</v>
+      </c>
+      <c r="G2" s="20">
+        <v>200</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20">
+        <v>60</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
+        <v>50</v>
+      </c>
+      <c r="F6" s="20">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <f>1/C2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="21">
+        <f>1/D2</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E9" s="21">
+        <f>1/E2</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="F9" s="21">
+        <f>1/F2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <f>1/G2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21">
+        <f>1/E3</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21">
+        <f>1/E3</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21">
+        <f>1/E6</f>
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="21">
+        <f>1/F6</f>
+        <v>0.05</v>
+      </c>
+      <c r="G13">
+        <f>1/G6</f>
+        <v>0.02</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="21">
+        <f>C9+C11</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" ref="D14:G14" si="0">D9+D11</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E14" s="21">
+        <f>E9+E11</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F14" s="21">
+        <f>F9+F11</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="21">
+        <f>C12+C13</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" ref="D15:G15" si="1">D12+D13</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <f>E13</f>
+        <v>0.02</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="21">
+        <f>C14+C15</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="21">
+        <f>D14+D15</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" ref="E17:G17" si="2">E14+E15</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="2"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H17" s="21">
+        <f>SUM(C17:G17)</f>
+        <v>0.13666666666666666</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="21">
+        <f>C9+C10+C13</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" ref="D18:G18" si="3">D9+D10+D13</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="3"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="19">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="19"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="19"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19">
+        <f>C17/$H$17</f>
+        <v>3.6585365853658541E-2</v>
+      </c>
+      <c r="D29" s="19">
+        <f t="shared" ref="D29:G29" si="4">D17/$H$17</f>
+        <v>4.8780487804878057E-2</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="4"/>
+        <v>0.32926829268292684</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="4"/>
+        <v>0.40243902439024393</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" si="4"/>
+        <v>0.18292682926829271</v>
+      </c>
+      <c r="H29" s="19">
+        <f>SUM(C29:G29)</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19">
+        <f>C14/C17</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="19">
+        <f t="shared" ref="D30:G31" si="5">D14/D17</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="5"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19">
+        <f>C15/C18</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="5"/>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19">
+        <f>C30</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="19">
+        <f t="shared" ref="D34:G34" si="6">D30</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19">
+        <f>E31</f>
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="H36" s="19">
+        <v>1</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19">
+        <f>0.909090909-0.15</f>
+        <v>0.75909090899999998</v>
+      </c>
+      <c r="H37" s="19">
+        <v>1</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38">
+        <v>0.15</v>
+      </c>
+      <c r="G38">
+        <v>0.8</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19">
+        <f>SUM(C34:C38)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="19">
+        <f t="shared" ref="D39:G39" si="7">SUM(D34:D38)</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="7"/>
+        <v>0.99999999990909094</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="H42" s="19">
+        <f>SUM(C42:G42)</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19">
+        <f>C17*C42</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D44" s="19">
+        <f t="shared" ref="D44:G44" si="8">D17*D42</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="E44" s="19">
+        <f>E17*E42</f>
+        <v>1.125E-2</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="8"/>
+        <v>5.5000000000000005E-3</v>
+      </c>
+      <c r="G44" s="19">
+        <f t="shared" si="8"/>
+        <v>1.2500000000000002E-3</v>
+      </c>
+      <c r="H44" s="19">
+        <f>SUM(C44:G44)</f>
+        <v>2.1833333333333337E-2</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19">
+        <f>C14*C42</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D45" s="19">
+        <f t="shared" ref="D45:G45" si="9">D14*D42</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" si="9"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G45" s="19">
+        <f t="shared" si="9"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H45" s="19">
+        <f>SUM(C45:G45)</f>
+        <v>1.0833333333333334E-2</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19">
+        <f>C15*C42</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="19">
+        <f t="shared" ref="D46:G46" si="10">D15*D42</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="19">
+        <f>E15*E42</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" si="10"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="G46" s="19">
+        <f t="shared" si="10"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H46" s="19">
+        <f>SUM(C46:G46)</f>
+        <v>1.1000000000000003E-2</v>
+      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="21">
+        <v>333.33330000000001</v>
+      </c>
+      <c r="C50" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D50" s="19">
+        <v>2.2656899000000001E-2</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19">
+        <v>6.2961699999999996E-4</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19">
+        <f>H45</f>
+        <v>1.0833333333333334E-2</v>
+      </c>
+      <c r="I50" s="20">
+        <f>1/H50</f>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="J50" s="19">
+        <f>H50/H55</f>
+        <v>0.49618320610687017</v>
+      </c>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="21">
+        <v>34.002000000000002</v>
+      </c>
+      <c r="C51" s="19">
+        <v>2.9409999999999999E-2</v>
+      </c>
+      <c r="D51" s="19">
+        <v>0.22211313299999999</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19">
+        <v>6.1723500000000001E-3</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="21">
+        <v>10</v>
+      </c>
+      <c r="C54" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.75522996799999997</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19">
+        <v>2.0987248E-2</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19">
+        <f>H46</f>
+        <v>1.1000000000000003E-2</v>
+      </c>
+      <c r="I54" s="19">
+        <f>1/H54</f>
+        <v>90.909090909090892</v>
+      </c>
+      <c r="J54" s="19">
+        <f>H54/H55</f>
+        <v>0.50381679389312983</v>
+      </c>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="21">
+        <v>7.5522999999999998</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0.13241</v>
+      </c>
+      <c r="D55" s="19">
+        <v>1</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19">
+        <v>2.7789215999999999E-2</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19">
+        <f>H44</f>
+        <v>2.1833333333333337E-2</v>
+      </c>
+      <c r="I55" s="19">
+        <f>1/H55</f>
+        <v>45.801526717557245</v>
+      </c>
+      <c r="J55" s="19">
+        <f>J50+J54</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="19"/>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="19"/>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="19"/>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="19"/>
+      <c r="W78" s="19"/>
+      <c r="X78" s="19"/>
+      <c r="Y78" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="17"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20">
+        <v>200</v>
+      </c>
+      <c r="D2" s="20">
+        <v>150</v>
+      </c>
+      <c r="E2" s="20">
+        <v>150</v>
+      </c>
+      <c r="F2" s="20">
+        <v>200</v>
+      </c>
+      <c r="G2" s="20">
+        <v>200</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20">
+        <v>60</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
+        <v>17</v>
+      </c>
+      <c r="F6" s="20">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <f>1/C2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="21">
+        <f>1/D2</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E9" s="21">
+        <f>1/E2</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="F9" s="21">
+        <f>1/F2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <f>1/G2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21">
+        <f>1/E3</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21">
+        <f>1/E3</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21">
+        <f>1/E6</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="F13" s="21">
+        <f>1/F6</f>
+        <v>0.05</v>
+      </c>
+      <c r="G13">
+        <f>1/G6</f>
+        <v>0.02</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="21">
+        <f>C9+C11</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" ref="D14:G14" si="0">D9+D11</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E14" s="21">
+        <f>E9+E11</f>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="F14" s="21">
+        <f>F9+F11</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="21">
+        <f>C12+C13</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" ref="D15:G15" si="1">D12+D13</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <f>E12+E13</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="21">
+        <f>C14+C15</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="21">
+        <f>D14+D15</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" ref="E17:G17" si="2">E14+E15</f>
+        <v>8.2156862745098036E-2</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="2"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H17" s="21">
+        <f>SUM(C17:G17)</f>
+        <v>0.17382352941176471</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="21">
+        <f>C9+C10+C13</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" ref="D18:G18" si="3">D9+D10+D13</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="3"/>
+        <v>8.2156862745098036E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="3"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="19">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="19"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="19"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19">
+        <f>C17/$H$17</f>
+        <v>2.8764805414551606E-2</v>
+      </c>
+      <c r="D29" s="19">
+        <f t="shared" ref="D29:G29" si="4">D17/$H$17</f>
+        <v>3.835307388606881E-2</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="4"/>
+        <v>0.47264523406655384</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="4"/>
+        <v>0.31641285956006765</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" si="4"/>
+        <v>0.14382402707275804</v>
+      </c>
+      <c r="H29" s="19">
+        <f>SUM(C29:G29)</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19">
+        <f>C14/C17</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="19">
+        <f t="shared" ref="D30:G31" si="5">D14/D17</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="19">
+        <f t="shared" si="5"/>
+        <v>0.28400954653937949</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="5"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19">
+        <f>C15/C18</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <f t="shared" si="5"/>
+        <v>0.71599045346062051</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="5"/>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.28400954699999997</v>
+      </c>
+      <c r="F34" s="19">
+        <v>9.0909090999999997E-2</v>
+      </c>
+      <c r="G34">
+        <f>G30</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19">
+        <v>0.71599045299999997</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="H36" s="19">
+        <v>1</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19">
+        <f>0.909090909-0.15</f>
+        <v>0.75909090899999998</v>
+      </c>
+      <c r="H37" s="19">
+        <v>1</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38">
+        <v>0.15</v>
+      </c>
+      <c r="G38">
+        <v>0.8</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19">
+        <f>SUM(C34:C38)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="19">
+        <f t="shared" ref="D39:G39" si="6">SUM(D34:D38)</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="H42" s="19">
+        <f>SUM(C42:G42)</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19">
+        <f>C17*C42</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D44" s="19">
+        <f t="shared" ref="D44:G44" si="7">D17*D42</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="E44" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0539215686274509E-2</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="7"/>
+        <v>5.5000000000000005E-3</v>
+      </c>
+      <c r="G44" s="19">
+        <f t="shared" si="7"/>
+        <v>1.2500000000000002E-3</v>
+      </c>
+      <c r="H44" s="19">
+        <f>SUM(C44:G44)</f>
+        <v>3.1122549019607846E-2</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19">
+        <f>C14*C42</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D45" s="19">
+        <f t="shared" ref="D45:G45" si="8">D14*D42</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" si="8"/>
+        <v>5.8333333333333336E-3</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="8"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G45" s="19">
+        <f t="shared" si="8"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H45" s="19">
+        <f t="shared" ref="H45" si="9">SUM(C45:G45)</f>
+        <v>1.0416666666666668E-2</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19">
+        <f>C15*C42</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="19">
+        <f t="shared" ref="D46:G46" si="10">D15*D42</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="19">
+        <f t="shared" si="10"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" si="10"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="G46" s="19">
+        <f t="shared" si="10"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H46" s="19">
+        <f>SUM(C46:G46)</f>
+        <v>2.0705882352941178E-2</v>
+      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="21">
+        <v>333.33330000000001</v>
+      </c>
+      <c r="C50" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D50" s="19">
+        <v>2.2656899000000001E-2</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19">
+        <v>6.2961699999999996E-4</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19">
+        <f>H45</f>
+        <v>1.0416666666666668E-2</v>
+      </c>
+      <c r="I50" s="19">
+        <f>1/H50</f>
+        <v>95.999999999999986</v>
+      </c>
+      <c r="J50" s="19">
+        <f>H50/H55</f>
+        <v>0.33469837769727517</v>
+      </c>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="21">
+        <v>34.002000000000002</v>
+      </c>
+      <c r="C51" s="19">
+        <v>2.9409999999999999E-2</v>
+      </c>
+      <c r="D51" s="19">
+        <v>0.22211313299999999</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19">
+        <v>6.1723500000000001E-3</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="21">
+        <v>10</v>
+      </c>
+      <c r="C54" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.75522996799999997</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19">
+        <v>2.0987248E-2</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19">
+        <f>H46</f>
+        <v>2.0705882352941178E-2</v>
+      </c>
+      <c r="I54" s="19">
+        <f>1/H54</f>
+        <v>48.29545454545454</v>
+      </c>
+      <c r="J54" s="19">
+        <f>H54/H55</f>
+        <v>0.66530162230272483</v>
+      </c>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="21">
+        <v>7.5522999999999998</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0.13241</v>
+      </c>
+      <c r="D55" s="19">
+        <v>1</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19">
+        <v>2.7789215999999999E-2</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19">
+        <f>H44</f>
+        <v>3.1122549019607846E-2</v>
+      </c>
+      <c r="I55" s="19">
+        <f>1/H55</f>
+        <v>32.13104425893841</v>
+      </c>
+      <c r="J55" s="19">
+        <f>J50+J54</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="19"/>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="19"/>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="19"/>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="19"/>
+      <c r="W78" s="19"/>
+      <c r="X78" s="19"/>
+      <c r="Y78" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6">
+        <v>75</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
+        <v>160</v>
+      </c>
+      <c r="F2" s="6">
+        <v>400</v>
+      </c>
+      <c r="G2" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>75</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>66</v>
+      </c>
+      <c r="F3" s="6">
+        <v>66</v>
+      </c>
+      <c r="G3" s="7">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:G10" si="0">1/C2</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8">
+        <f>C10</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <f>1/E3</f>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <f>1/F3</f>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="G12" s="8">
+        <f>G10</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8">
+        <f>1/C6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
+        <f>1/E6</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <f>1/F6</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G13" s="8">
+        <f>1/G6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8">
+        <f>C9+C11+C13</f>
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
+        <f>E9+E11</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F14" s="8">
+        <f>F9+F11</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G14" s="8">
+        <f>G9+G11</f>
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(C14:G14)</f>
+        <v>0.12875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <f>E12+E13</f>
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="F15" s="8">
+        <f>F12+F13</f>
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="G15" s="8">
+        <f>G12+G13</f>
+        <v>0.09</v>
+      </c>
+      <c r="H15" s="8">
+        <f>SUM(C15:G15)</f>
+        <v>0.30212121212121212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8">
+        <f>C9+C10+C13</f>
+        <v>0.11</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <f>E9+E10+E13</f>
+        <v>0.11231060606060606</v>
+      </c>
+      <c r="F17" s="8">
+        <f>F9+F10+F13</f>
+        <v>0.10856060606060607</v>
+      </c>
+      <c r="G17" s="8">
+        <f>G9+G10+G13</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="H17" s="8">
+        <f>SUM(C17:G17)</f>
+        <v>0.4308712121212121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C14+C15</f>
+        <v>0.11</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <f>E14+E15</f>
+        <v>0.11231060606060607</v>
+      </c>
+      <c r="F18" s="8">
+        <f>F14+F15</f>
+        <v>0.10856060606060607</v>
+      </c>
+      <c r="G18" s="8">
+        <f>G14+G15</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <f>G12</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
+        <f>1/G6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <f t="shared" ref="E26" si="1">SUM(E21:E23)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F21:F25)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G21:G25)</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28">
+        <f>C11/C14</f>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:G29" si="2">E11/E14</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>7.4074074074074084E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="C30">
+        <v>0.2092</v>
+      </c>
+      <c r="D30">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.2064</v>
+      </c>
+      <c r="G30">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="H30">
+        <f>SUM(C30:G30)</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <f>C17/$H$17</f>
+        <v>0.25529670329670329</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:G31" si="3">D17/$H$17</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.26065934065934065</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.25195604395604398</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.23208791208791207</v>
+      </c>
+      <c r="H31">
+        <f>SUM(C31:G31)</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <f>C14/C17</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>E14/E17</f>
+        <v>5.5649241146711645E-2</v>
+      </c>
+      <c r="F32">
+        <f>F14/F17</f>
+        <v>2.3028611304954639E-2</v>
+      </c>
+      <c r="G32">
+        <f>G14/G17</f>
+        <v>0.1</v>
+      </c>
+      <c r="H32">
+        <f>H14/$H$14</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <f>C15/C17</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>E15/E17</f>
+        <v>0.94435075885328845</v>
+      </c>
+      <c r="F33">
+        <f>F15/F17</f>
+        <v>0.9769713886950453</v>
+      </c>
+      <c r="G33">
+        <f>G15/G17</f>
+        <v>0.9</v>
+      </c>
+      <c r="H33">
+        <f>H15/$H$15</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <f>C32</f>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f>E32</f>
+        <v>5.5649241146711645E-2</v>
+      </c>
+      <c r="F36">
+        <f>F32</f>
+        <v>2.3028611304954639E-2</v>
+      </c>
+      <c r="G36">
+        <f>G32</f>
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <f>E33</f>
+        <v>0.94435075885328845</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>F33</f>
+        <v>0.9769713886950453</v>
+      </c>
+      <c r="G39">
+        <f>(1/G3)/G17</f>
+        <v>6.666666666666668E-2</v>
+      </c>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>(G13)/G17</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <f>SUM(C36:C40)</f>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:F41" si="4">SUM(E36:E40)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G41">
+        <f>SUM(G36:G40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
+        <f>E38/E33</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>F39/F33</f>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f>G39/G33</f>
+        <v>7.4074074074074084E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>G40/G33</f>
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <f>SUM(C44:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:G48" si="5">SUM(E44:E47)</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <v>0.15</v>
+      </c>
+      <c r="E50">
+        <v>0.27</v>
+      </c>
+      <c r="F50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G50">
+        <v>0.03</v>
+      </c>
+      <c r="H50">
+        <f>SUM(C50:G50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <f>C17*C50</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D52">
+        <f>D17*D50</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>E17*E50</f>
+        <v>3.0323863636363638E-2</v>
+      </c>
+      <c r="F52">
+        <f>F17*F50</f>
+        <v>5.9708333333333342E-2</v>
+      </c>
+      <c r="G52">
+        <f>G17*G50</f>
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="H52">
+        <f>SUM(C52:G52)</f>
+        <v>0.10953219696969699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53">
+        <f>C14*C50</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D53">
+        <f>D14*D50</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>E14*E50</f>
+        <v>1.6875000000000002E-3</v>
+      </c>
+      <c r="F53">
+        <f>F14*F50</f>
+        <v>1.3750000000000001E-3</v>
+      </c>
+      <c r="G53">
+        <f>G14*G50</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H53">
+        <f>SUM(C53:G53)</f>
+        <v>1.9862500000000005E-2</v>
+      </c>
+      <c r="J53">
+        <f>0.2*0.02+0.1*1/75+0.25*1/315+0.4*0.001+0.05*1/60</f>
+        <v>7.3603174603174611E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <f>C15*C50</f>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>D15*D50</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>E15*E50</f>
+        <v>2.863636363636364E-2</v>
+      </c>
+      <c r="F54">
+        <f>F15*F50</f>
+        <v>5.8333333333333341E-2</v>
+      </c>
+      <c r="G54">
+        <f>G15*G50</f>
+        <v>2.6999999999999997E-3</v>
+      </c>
+      <c r="H54">
+        <f>SUM(C54:G54)</f>
+        <v>8.9669696969696969E-2</v>
+      </c>
+      <c r="J54">
+        <f>H14/H17</f>
+        <v>0.29881318681318686</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="8">
+        <f>1/C58</f>
+        <v>149.92503748125938</v>
+      </c>
+      <c r="C58">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="D58">
+        <f>C58/C63</f>
+        <v>0.11608075182735816</v>
+      </c>
+      <c r="F58">
+        <f>F63*D58</f>
+        <v>1.2714579773544708E-2</v>
+      </c>
+      <c r="H58">
+        <f>H53</f>
+        <v>1.9862500000000005E-2</v>
+      </c>
+      <c r="I58">
+        <f>1/H58</f>
+        <v>50.346129641283817</v>
+      </c>
+      <c r="J58">
+        <f>H58/H63</f>
+        <v>0.18133937371396958</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="8">
+        <f t="shared" ref="B59:B63" si="6">1/C59</f>
+        <v>45.004500450045008</v>
+      </c>
+      <c r="C59">
+        <v>2.222E-2</v>
+      </c>
+      <c r="D59">
+        <f>C59/C63</f>
+        <v>0.38670379394361298</v>
+      </c>
+      <c r="F59">
+        <f>F63*D59</f>
+        <v>4.2356516127160931E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="8">
+        <f t="shared" si="6"/>
+        <v>35.001750087504377</v>
+      </c>
+      <c r="C62">
+        <v>2.8570000000000002E-2</v>
+      </c>
+      <c r="D62">
+        <f>C62/C63</f>
+        <v>0.49721545422902896</v>
+      </c>
+      <c r="F62">
+        <f>F63*D62</f>
+        <v>5.4461101068991359E-2</v>
+      </c>
+      <c r="H62">
+        <f>H54</f>
+        <v>8.9669696969696969E-2</v>
+      </c>
+      <c r="I62">
+        <f>1/H62</f>
+        <v>11.152039471460917</v>
+      </c>
+      <c r="J62">
+        <f>H62/H63</f>
+        <v>0.81866062628603042</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="8">
+        <f t="shared" si="6"/>
+        <v>17.40341106856944</v>
+      </c>
+      <c r="C63">
+        <v>5.7459999999999997E-2</v>
+      </c>
+      <c r="D63">
+        <f>D58+D59+D62</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F63">
+        <f>H52</f>
+        <v>0.10953219696969699</v>
+      </c>
+      <c r="H63">
+        <f>H58+H62</f>
+        <v>0.10953219696969697</v>
+      </c>
+      <c r="I63">
+        <f>1/H63</f>
+        <v>9.1297356180727256</v>
+      </c>
+      <c r="J63">
+        <f>J58+J62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B87"/>
   <sheetViews>
@@ -4841,7 +11223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P111"/>
   <sheetViews>
@@ -7613,11 +13995,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/_RFR/RFR Succession Transitions.xlsx
+++ b/_RFR/RFR Succession Transitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="18980" windowHeight="19360" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20020" windowHeight="22120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Xeric 321 (RFWFJP)" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="215">
   <si>
     <t>Succession Type</t>
   </si>
@@ -190,12 +190,6 @@
     <t>Abies magnificaAbies concolorPinus contorta murrayana</t>
   </si>
   <si>
-    <t>50% to LO</t>
-  </si>
-  <si>
-    <t>50% stay LC</t>
-  </si>
-  <si>
     <t>50% to MO</t>
   </si>
   <si>
@@ -674,6 +668,9 @@
   </si>
   <si>
     <t>100% stay LC2</t>
+  </si>
+  <si>
+    <t>100% stay LC</t>
   </si>
 </sst>
 </file>
@@ -798,8 +795,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -852,7 +851,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -866,6 +865,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -879,6 +879,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1214,7 +1215,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1284,13 +1285,13 @@
         <v>85</v>
       </c>
       <c r="D2" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E2" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F2" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G2" s="6">
         <v>250</v>
@@ -1337,7 +1338,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
@@ -1346,7 +1347,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7"/>
       <c r="L4" s="8"/>
@@ -1366,13 +1367,11 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1422,7 +1421,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="J7" s="5"/>
       <c r="L7" s="8"/>
@@ -1466,15 +1465,15 @@
       </c>
       <c r="D9" s="8">
         <f>1/D2</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" ref="E9" si="0">1/E2</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F9" s="8">
         <f>1/F2</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G9" s="8">
         <f>1/G2</f>
@@ -1624,15 +1623,15 @@
       </c>
       <c r="D14" s="8">
         <f>D9+D11</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E14" s="8">
         <f>E9+E11</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F14" s="8">
         <f>F9+F11</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G14" s="9">
         <f>G9+G11</f>
@@ -1640,7 +1639,7 @@
       </c>
       <c r="H14" s="8">
         <f>SUM(C14:G14)</f>
-        <v>3.5764705882352948E-2</v>
+        <v>2.7764705882352941E-2</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -1710,15 +1709,15 @@
       </c>
       <c r="D17" s="8">
         <f>D9+D10+D13</f>
-        <v>4.4166666666666674E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="E17" s="8">
         <f>E9+E10+E13</f>
-        <v>5.6666666666666671E-2</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="F17" s="8">
         <f>F9+F10+F13</f>
-        <v>3.8333333333333337E-2</v>
+        <v>3.5666666666666666E-2</v>
       </c>
       <c r="G17" s="9">
         <f>G9+G10+G13</f>
@@ -1726,7 +1725,7 @@
       </c>
       <c r="H17" s="8">
         <f>SUM(C17:G17)</f>
-        <v>0.1784607843137255</v>
+        <v>0.17046078431372549</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -1750,15 +1749,15 @@
       </c>
       <c r="D18" s="8">
         <f>D14+D15</f>
-        <v>4.4166666666666674E-2</v>
+        <v>4.1500000000000009E-2</v>
       </c>
       <c r="E18" s="8">
         <f>E14+E15</f>
-        <v>5.6666666666666671E-2</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="F18" s="8">
         <f>F14+F15</f>
-        <v>3.8333333333333337E-2</v>
+        <v>3.5666666666666666E-2</v>
       </c>
       <c r="G18" s="9">
         <f>G14+G15</f>
@@ -1817,15 +1816,15 @@
       </c>
       <c r="D21" s="11">
         <f>D14/D17</f>
-        <v>0.15094339622641509</v>
+        <v>9.638554216867469E-2</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" ref="E21:G21" si="1">E14/E17</f>
-        <v>0.11764705882352941</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v>0.17391304347826086</v>
+        <v>0.11214953271028037</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="1"/>
@@ -1858,7 +1857,7 @@
       </c>
       <c r="D22">
         <f>D12*0.5/D17</f>
-        <v>0.28301886792452829</v>
+        <v>0.30120481927710846</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1896,11 +1895,11 @@
       </c>
       <c r="D23">
         <f>((D12*0.5)+D13)/D17</f>
-        <v>0.56603773584905659</v>
+        <v>0.60240963855421692</v>
       </c>
       <c r="E23">
         <f>E15/E17</f>
-        <v>0.88235294117647056</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1934,22 +1933,22 @@
       </c>
       <c r="F24">
         <f>F15/F17</f>
-        <v>0.82608695652173914</v>
+        <v>0.88785046728971972</v>
       </c>
       <c r="G24" s="10">
-        <f>(G13+G12*0.5)/G17</f>
-        <v>0.64102564102564097</v>
+        <f>(G12)/G17</f>
+        <v>0.42735042735042733</v>
       </c>
       <c r="I24" t="s">
         <v>4</v>
       </c>
       <c r="J24">
-        <f>(G13+G12*0.5)/G15</f>
-        <v>0.75</v>
+        <f>(G12)/G15</f>
+        <v>0.5</v>
       </c>
       <c r="K24" s="8">
         <f>J24/G31</f>
-        <v>0.87750000000000006</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -1973,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="G25" s="10">
-        <f>G12*0.5/G17</f>
-        <v>0.21367521367521367</v>
+        <f>G12/G17</f>
+        <v>0.42735042735042733</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
       </c>
       <c r="J25">
-        <f>G12*0.5/G15</f>
-        <v>0.25</v>
+        <f>G13/G15</f>
+        <v>0.5</v>
       </c>
       <c r="K25" s="8">
         <f>J25/G31</f>
-        <v>0.29250000000000004</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -2008,7 +2007,7 @@
       </c>
       <c r="E26" s="8">
         <f t="shared" ref="E26:G26" si="2">SUM(E21:E25)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="2"/>
@@ -2060,23 +2059,23 @@
       </c>
       <c r="C29">
         <f>C17/$H$17</f>
-        <v>6.5923199472614394E-2</v>
+        <v>6.9017081727727608E-2</v>
       </c>
       <c r="D29">
         <f>D17/$H$17</f>
-        <v>0.2474866780201066</v>
+        <v>0.24345775579455917</v>
       </c>
       <c r="E29">
         <f>E17/$H$17</f>
-        <v>0.31753007745975936</v>
+        <v>0.31678840513026979</v>
       </c>
       <c r="F29">
         <f>F17/$H$17</f>
-        <v>0.21479975828160194</v>
+        <v>0.20923678610456087</v>
       </c>
       <c r="G29">
         <f>G17/$H$17</f>
-        <v>0.15426028676591769</v>
+        <v>0.1614999712428826</v>
       </c>
       <c r="H29">
         <f>SUM(C29:G29)</f>
@@ -2103,15 +2102,15 @@
       </c>
       <c r="D30">
         <f>D14/D17</f>
-        <v>0.15094339622641509</v>
+        <v>9.638554216867469E-2</v>
       </c>
       <c r="E30">
         <f>E14/E17</f>
-        <v>0.11764705882352941</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F30">
         <f>F14/F17</f>
-        <v>0.17391304347826086</v>
+        <v>0.11214953271028037</v>
       </c>
       <c r="G30">
         <f>G14/G17</f>
@@ -2138,15 +2137,15 @@
       </c>
       <c r="D31">
         <f>D15/D17</f>
-        <v>0.84905660377358494</v>
+        <v>0.90361445783132543</v>
       </c>
       <c r="E31">
         <f>E15/E17</f>
-        <v>0.88235294117647056</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="F31">
         <f>F15/F17</f>
-        <v>0.82608695652173914</v>
+        <v>0.88785046728971972</v>
       </c>
       <c r="G31">
         <f>G15/G17</f>
@@ -2202,15 +2201,15 @@
       </c>
       <c r="D34">
         <f>D9/D17</f>
-        <v>0.15094339622641509</v>
+        <v>9.638554216867469E-2</v>
       </c>
       <c r="E34">
         <f>E14/E17</f>
-        <v>0.11764705882352941</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F34">
         <f>F30</f>
-        <v>0.17391304347826086</v>
+        <v>0.11214953271028037</v>
       </c>
       <c r="G34">
         <f>G30</f>
@@ -2250,11 +2249,11 @@
       </c>
       <c r="D36">
         <f>D15/D17</f>
-        <v>0.84905660377358494</v>
+        <v>0.90361445783132543</v>
       </c>
       <c r="E36">
         <f>E31</f>
-        <v>0.88235294117647056</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="H36">
         <f>H17/$H$17</f>
@@ -2268,7 +2267,7 @@
       </c>
       <c r="F37">
         <f>F31</f>
-        <v>0.82608695652173914</v>
+        <v>0.88785046728971972</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37">
@@ -2301,11 +2300,11 @@
       </c>
       <c r="D39">
         <f>SUM(D34:D38)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="E39">
         <f>SUM(E34:E38)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F39">
         <f>SUM(F34:F38)</f>
@@ -2357,15 +2356,15 @@
       </c>
       <c r="D44">
         <f>D17*D42</f>
-        <v>8.8333333333333354E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="E44">
         <f>E17*E42</f>
-        <v>8.5000000000000006E-3</v>
+        <v>8.1000000000000013E-3</v>
       </c>
       <c r="F44">
         <f>F17*F42</f>
-        <v>9.5833333333333343E-3</v>
+        <v>8.9166666666666665E-3</v>
       </c>
       <c r="G44">
         <f>G17*G42</f>
@@ -2373,7 +2372,7 @@
       </c>
       <c r="H44">
         <f>SUM(C44:G44)</f>
-        <v>3.4775490196078437E-2</v>
+        <v>3.3175490196078433E-2</v>
       </c>
       <c r="Q44" s="6"/>
     </row>
@@ -2387,15 +2386,15 @@
       </c>
       <c r="D45">
         <f>D14*D42</f>
-        <v>1.3333333333333335E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E45">
         <f>E14*E42</f>
-        <v>1E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="F45">
         <f>F14*F42</f>
-        <v>1.6666666666666668E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G45">
         <f>G14*G42</f>
@@ -2403,7 +2402,7 @@
       </c>
       <c r="H45">
         <f>SUM(C45:G45)</f>
-        <v>7.1529411764705893E-3</v>
+        <v>5.5529411764705886E-3</v>
       </c>
       <c r="Q45" s="6"/>
     </row>
@@ -2479,19 +2478,19 @@
       </c>
       <c r="F50">
         <f>F55*D50</f>
-        <v>7.8790476994362445E-4</v>
+        <v>7.5165373150241899E-4</v>
       </c>
       <c r="H50">
         <f>H45</f>
-        <v>7.1529411764705893E-3</v>
+        <v>5.5529411764705886E-3</v>
       </c>
       <c r="I50">
         <f>1/H50</f>
-        <v>139.80263157894734</v>
+        <v>180.08474576271186</v>
       </c>
       <c r="J50">
         <f>H50/H55*100</f>
-        <v>20.568915452059429</v>
+        <v>16.738083276692574</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2511,7 +2510,7 @@
       </c>
       <c r="F51">
         <f>F55*D51</f>
-        <v>7.7240930946806648E-3</v>
+        <v>7.3687120811620471E-3</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2543,7 +2542,7 @@
       </c>
       <c r="F54">
         <f>F55*D54</f>
-        <v>2.6263492331454148E-2</v>
+        <v>2.5055124383413965E-2</v>
       </c>
       <c r="H54">
         <f>H46</f>
@@ -2555,7 +2554,7 @@
       </c>
       <c r="J54">
         <f>H54/H55*100</f>
-        <v>79.431084547940571</v>
+        <v>83.261916723307422</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2575,15 +2574,15 @@
       </c>
       <c r="F55">
         <f>H44</f>
-        <v>3.4775490196078437E-2</v>
+        <v>3.3175490196078433E-2</v>
       </c>
       <c r="H55">
         <f>H50+H54</f>
-        <v>3.4775490196078437E-2</v>
+        <v>3.3175490196078433E-2</v>
       </c>
       <c r="I55">
         <f>1/H55</f>
-        <v>28.755885089227814</v>
+        <v>30.142734714382811</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2679,6 +2678,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2691,11 +2691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2765,13 +2765,13 @@
         <v>85</v>
       </c>
       <c r="D2" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E2" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F2" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G2" s="6">
         <v>250</v>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
@@ -2827,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7"/>
       <c r="L4" s="8"/>
@@ -2847,13 +2847,11 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -2903,7 +2901,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="J7" s="5"/>
       <c r="L7" s="8"/>
@@ -2947,15 +2945,15 @@
       </c>
       <c r="D9" s="8">
         <f>1/D2</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" ref="E9" si="0">1/E2</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F9" s="8">
         <f>1/F2</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G9" s="8">
         <f>1/G2</f>
@@ -3105,15 +3103,15 @@
       </c>
       <c r="D14" s="8">
         <f>D9+D11</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E14" s="8">
         <f>E9+E11</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F14" s="8">
         <f>F9+F11</f>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G14" s="9">
         <f>G9+G11</f>
@@ -3121,7 +3119,7 @@
       </c>
       <c r="H14" s="8">
         <f>SUM(C14:G14)</f>
-        <v>3.5764705882352948E-2</v>
+        <v>2.7764705882352941E-2</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -3191,15 +3189,15 @@
       </c>
       <c r="D17" s="8">
         <f>D9+D10+D13</f>
-        <v>4.4166666666666674E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="E17" s="8">
         <f>E9+E10+E13</f>
-        <v>5.6666666666666671E-2</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="F17" s="8">
         <f>F9+F10+F13</f>
-        <v>3.8333333333333337E-2</v>
+        <v>3.5666666666666666E-2</v>
       </c>
       <c r="G17" s="9">
         <f>G9+G10+G13</f>
@@ -3207,7 +3205,7 @@
       </c>
       <c r="H17" s="8">
         <f>SUM(C17:G17)</f>
-        <v>0.1784607843137255</v>
+        <v>0.17046078431372549</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -3231,15 +3229,15 @@
       </c>
       <c r="D18" s="8">
         <f>D14+D15</f>
-        <v>4.4166666666666674E-2</v>
+        <v>4.1500000000000009E-2</v>
       </c>
       <c r="E18" s="8">
         <f>E14+E15</f>
-        <v>5.6666666666666671E-2</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="F18" s="8">
         <f>F14+F15</f>
-        <v>3.8333333333333337E-2</v>
+        <v>3.5666666666666666E-2</v>
       </c>
       <c r="G18" s="9">
         <f>G14+G15</f>
@@ -3298,15 +3296,15 @@
       </c>
       <c r="D21" s="11">
         <f>D14/D17</f>
-        <v>0.15094339622641509</v>
+        <v>9.638554216867469E-2</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" ref="E21:G21" si="1">E14/E17</f>
-        <v>0.11764705882352941</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v>0.17391304347826086</v>
+        <v>0.11214953271028037</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="1"/>
@@ -3339,7 +3337,7 @@
       </c>
       <c r="D22">
         <f>D12*0.5/D17</f>
-        <v>0.28301886792452829</v>
+        <v>0.30120481927710846</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3377,11 +3375,11 @@
       </c>
       <c r="D23">
         <f>((D12*0.5)+D13)/D17</f>
-        <v>0.56603773584905659</v>
+        <v>0.60240963855421692</v>
       </c>
       <c r="E23">
         <f>E15/E17</f>
-        <v>0.88235294117647056</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3415,11 +3413,11 @@
       </c>
       <c r="F24">
         <f>F15/F17</f>
-        <v>0.82608695652173914</v>
+        <v>0.88785046728971972</v>
       </c>
       <c r="G24" s="10">
-        <f>(G13+G12*0.5)/G17</f>
-        <v>0.64102564102564097</v>
+        <f>(G12)/G17</f>
+        <v>0.42735042735042733</v>
       </c>
       <c r="I24" t="s">
         <v>4</v>
@@ -3454,8 +3452,8 @@
         <v>0</v>
       </c>
       <c r="G25" s="10">
-        <f>G12*0.5/G17</f>
-        <v>0.21367521367521367</v>
+        <f>G12/G17</f>
+        <v>0.42735042735042733</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -3489,7 +3487,7 @@
       </c>
       <c r="E26" s="8">
         <f t="shared" ref="E26:G26" si="2">SUM(E21:E25)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="2"/>
@@ -3541,23 +3539,23 @@
       </c>
       <c r="C29">
         <f>C17/$H$17</f>
-        <v>6.5923199472614394E-2</v>
+        <v>6.9017081727727608E-2</v>
       </c>
       <c r="D29">
         <f>D17/$H$17</f>
-        <v>0.2474866780201066</v>
+        <v>0.24345775579455917</v>
       </c>
       <c r="E29">
         <f>E17/$H$17</f>
-        <v>0.31753007745975936</v>
+        <v>0.31678840513026979</v>
       </c>
       <c r="F29">
         <f>F17/$H$17</f>
-        <v>0.21479975828160194</v>
+        <v>0.20923678610456087</v>
       </c>
       <c r="G29">
         <f>G17/$H$17</f>
-        <v>0.15426028676591769</v>
+        <v>0.1614999712428826</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -3580,15 +3578,15 @@
       </c>
       <c r="D30">
         <f>D14/D17</f>
-        <v>0.15094339622641509</v>
+        <v>9.638554216867469E-2</v>
       </c>
       <c r="E30">
         <f>E14/E17</f>
-        <v>0.11764705882352941</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F30">
         <f>F14/F17</f>
-        <v>0.17391304347826086</v>
+        <v>0.11214953271028037</v>
       </c>
       <c r="G30">
         <f>G14/G17</f>
@@ -3615,15 +3613,15 @@
       </c>
       <c r="D31">
         <f>D15/D17</f>
-        <v>0.84905660377358494</v>
+        <v>0.90361445783132543</v>
       </c>
       <c r="E31">
         <f>E15/E17</f>
-        <v>0.88235294117647056</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="F31">
         <f>F15/F17</f>
-        <v>0.82608695652173914</v>
+        <v>0.88785046728971972</v>
       </c>
       <c r="G31">
         <f>G15/G17</f>
@@ -3679,15 +3677,15 @@
       </c>
       <c r="D34">
         <f>D9/D17</f>
-        <v>0.15094339622641509</v>
+        <v>9.638554216867469E-2</v>
       </c>
       <c r="E34">
         <f>E14/E17</f>
-        <v>0.11764705882352941</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F34">
         <f>F30</f>
-        <v>0.17391304347826086</v>
+        <v>0.11214953271028037</v>
       </c>
       <c r="G34">
         <f>G30</f>
@@ -3727,11 +3725,11 @@
       </c>
       <c r="D36">
         <f>D15/D17</f>
-        <v>0.84905660377358494</v>
+        <v>0.90361445783132543</v>
       </c>
       <c r="E36">
         <f>E31</f>
-        <v>0.88235294117647056</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="H36">
         <f>H17/$H$17</f>
@@ -3745,7 +3743,7 @@
       </c>
       <c r="F37">
         <f>F31</f>
-        <v>0.82608695652173914</v>
+        <v>0.88785046728971972</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37">
@@ -3778,11 +3776,11 @@
       </c>
       <c r="D39">
         <f>SUM(D34:D38)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="E39">
         <f>SUM(E34:E38)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F39">
         <f>SUM(F34:F38)</f>
@@ -3834,15 +3832,15 @@
       </c>
       <c r="D44">
         <f>D17*D42</f>
-        <v>4.4166666666666677E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="E44">
         <f>E17*E42</f>
-        <v>1.1333333333333334E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="F44">
         <f>F17*F42</f>
-        <v>1.5333333333333336E-2</v>
+        <v>1.4266666666666667E-2</v>
       </c>
       <c r="G44">
         <f>G17*G42</f>
@@ -3850,7 +3848,7 @@
       </c>
       <c r="H44">
         <f>SUM(C44:G44)</f>
-        <v>3.776568627450981E-2</v>
+        <v>3.5899019607843141E-2</v>
       </c>
       <c r="Q44" s="6"/>
     </row>
@@ -3864,15 +3862,15 @@
       </c>
       <c r="D45">
         <f>D14*D42</f>
-        <v>6.6666666666666675E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E45">
         <f>E14*E42</f>
-        <v>1.3333333333333335E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F45">
         <f>F14*F42</f>
-        <v>2.666666666666667E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="G45">
         <f>G14*G42</f>
@@ -3880,7 +3878,7 @@
       </c>
       <c r="H45">
         <f>SUM(C45:G45)</f>
-        <v>6.6431372549019619E-3</v>
+        <v>4.7764705882352943E-3</v>
       </c>
       <c r="Q45" s="6"/>
     </row>
@@ -3956,19 +3954,19 @@
       </c>
       <c r="F50">
         <f>F55*D50</f>
-        <v>8.5565334055984763E-4</v>
+        <v>8.1336046237844137E-4</v>
       </c>
       <c r="H50">
         <f>H45</f>
-        <v>6.6431372549019619E-3</v>
+        <v>4.7764705882352943E-3</v>
       </c>
       <c r="I50">
         <f>1/H50</f>
-        <v>150.53128689492323</v>
+        <v>209.35960591133005</v>
       </c>
       <c r="J50">
         <f>H50/H55*100</f>
-        <v>17.590405233508996</v>
+        <v>13.305295354616709</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3988,7 +3986,7 @@
       </c>
       <c r="F51">
         <f>F55*D51</f>
-        <v>8.3882549152883724E-3</v>
+        <v>7.9736437328499863E-3</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4020,7 +4018,7 @@
       </c>
       <c r="F54">
         <f>F55*D54</f>
-        <v>2.8521778018661591E-2</v>
+        <v>2.7112015412614713E-2</v>
       </c>
       <c r="H54">
         <f>H46</f>
@@ -4032,7 +4030,7 @@
       </c>
       <c r="J54">
         <f>H54/H55*100</f>
-        <v>82.409594766491011</v>
+        <v>86.694704645383297</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4052,15 +4050,15 @@
       </c>
       <c r="F55">
         <f>H44</f>
-        <v>3.776568627450981E-2</v>
+        <v>3.5899019607843141E-2</v>
       </c>
       <c r="H55">
         <f>H50+H54</f>
-        <v>3.776568627450981E-2</v>
+        <v>3.5899019607843141E-2</v>
       </c>
       <c r="I55">
         <f>1/H55</f>
-        <v>26.479063368033017</v>
+        <v>27.855913919764042</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4169,7 +4167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -4189,16 +4187,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>6</v>
@@ -4296,14 +4294,14 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="19"/>
@@ -5353,7 +5351,7 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -5381,7 +5379,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -5447,7 +5445,7 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F38">
         <v>0.15</v>
@@ -6764,16 +6762,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>6</v>
@@ -6871,14 +6869,14 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="19"/>
@@ -7926,7 +7924,7 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -7954,7 +7952,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -8019,7 +8017,7 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F38">
         <v>0.15</v>
@@ -9399,7 +9397,7 @@
         <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9409,14 +9407,14 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9429,7 +9427,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9686,7 +9684,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -9768,7 +9766,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C28">
         <f>C11/C14</f>
@@ -9789,7 +9787,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -10052,7 +10050,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -10518,7 +10516,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10526,7 +10524,7 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10534,7 +10532,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10542,7 +10540,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10558,7 +10556,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10566,7 +10564,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10574,7 +10572,7 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10582,7 +10580,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10590,7 +10588,7 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10598,7 +10596,7 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10606,7 +10604,7 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10614,7 +10612,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10622,7 +10620,7 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10630,7 +10628,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10638,7 +10636,7 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10646,7 +10644,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10654,7 +10652,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10662,7 +10660,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10670,7 +10668,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -10678,7 +10676,7 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -10686,7 +10684,7 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -10694,7 +10692,7 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -10702,7 +10700,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -10710,7 +10708,7 @@
         <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -10718,7 +10716,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -10734,7 +10732,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -10742,7 +10740,7 @@
         <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -10750,7 +10748,7 @@
         <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -10758,7 +10756,7 @@
         <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -10766,7 +10764,7 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -10774,7 +10772,7 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -10782,7 +10780,7 @@
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -10790,7 +10788,7 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -10798,7 +10796,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -10806,7 +10804,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -10814,7 +10812,7 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -10822,7 +10820,7 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -10830,7 +10828,7 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -10838,7 +10836,7 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -10846,7 +10844,7 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -10854,7 +10852,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -10862,7 +10860,7 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -10870,7 +10868,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -10902,7 +10900,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -10910,7 +10908,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -10918,7 +10916,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -10926,7 +10924,7 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -10934,7 +10932,7 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -10942,7 +10940,7 @@
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -10950,7 +10948,7 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -10958,7 +10956,7 @@
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -10966,7 +10964,7 @@
         <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -10990,7 +10988,7 @@
         <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -10998,7 +10996,7 @@
         <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -11006,7 +11004,7 @@
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -11014,7 +11012,7 @@
         <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -11022,7 +11020,7 @@
         <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -11030,7 +11028,7 @@
         <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -11038,7 +11036,7 @@
         <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -11046,7 +11044,7 @@
         <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -11054,7 +11052,7 @@
         <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -11062,7 +11060,7 @@
         <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -11070,7 +11068,7 @@
         <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -11078,7 +11076,7 @@
         <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -11086,7 +11084,7 @@
         <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -11094,7 +11092,7 @@
         <v>48</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -11102,7 +11100,7 @@
         <v>48</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -11110,7 +11108,7 @@
         <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -11118,7 +11116,7 @@
         <v>48</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -11126,7 +11124,7 @@
         <v>48</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -11134,7 +11132,7 @@
         <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -11142,7 +11140,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -11150,7 +11148,7 @@
         <v>48</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -11158,7 +11156,7 @@
         <v>48</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -11166,7 +11164,7 @@
         <v>48</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -11174,7 +11172,7 @@
         <v>48</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -11182,7 +11180,7 @@
         <v>48</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -11190,7 +11188,7 @@
         <v>48</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -11198,7 +11196,7 @@
         <v>48</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -11206,7 +11204,7 @@
         <v>48</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -11253,2731 +11251,2731 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
-      </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
         <v>64</v>
       </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" t="s">
         <v>65</v>
       </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s">
-        <v>67</v>
-      </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>65</v>
       </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
-      </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" t="s">
         <v>59</v>
       </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" t="s">
-        <v>61</v>
-      </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" t="s">
         <v>59</v>
       </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" t="s">
-        <v>61</v>
-      </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
         <v>97</v>
       </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" t="s">
-        <v>99</v>
-      </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" t="s">
         <v>64</v>
       </c>
-      <c r="J12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" t="s">
         <v>65</v>
       </c>
-      <c r="L12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" t="s">
-        <v>67</v>
-      </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="s">
         <v>59</v>
       </c>
-      <c r="L16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" t="s">
-        <v>61</v>
-      </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="N18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" t="s">
-        <v>67</v>
-      </c>
       <c r="P18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="N19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" t="s">
-        <v>67</v>
-      </c>
       <c r="P19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" t="s">
         <v>65</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" t="s">
-        <v>67</v>
-      </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" t="s">
-        <v>66</v>
-      </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" t="s">
         <v>73</v>
       </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" t="s">
-        <v>75</v>
-      </c>
       <c r="J31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" t="s">
         <v>64</v>
       </c>
-      <c r="J33" t="s">
-        <v>60</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="N33" t="s">
+        <v>58</v>
+      </c>
+      <c r="O33" t="s">
         <v>65</v>
       </c>
-      <c r="L33" t="s">
-        <v>60</v>
-      </c>
-      <c r="M33" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" t="s">
-        <v>60</v>
-      </c>
-      <c r="O33" t="s">
-        <v>67</v>
-      </c>
       <c r="P33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" t="s">
         <v>110</v>
       </c>
-      <c r="B97" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" t="s">
-        <v>112</v>
-      </c>
       <c r="D97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D104" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D106" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C107" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" t="s">
         <v>88</v>
-      </c>
-      <c r="D107" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D109" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C110" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D111" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -14087,7 +14085,7 @@
         <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14096,17 +14094,17 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14119,7 +14117,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14404,7 +14402,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -14498,7 +14496,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14523,7 +14521,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33:G34" si="2">C11/C14</f>
@@ -14548,7 +14546,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -14826,7 +14824,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:10">
